--- a/P2/P2_PeerReview.xlsx
+++ b/P2/P2_PeerReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB5364F3-92E1-4F98-ADDD-91FEEA275CF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88856B4-6F0A-4B30-A9DD-BB1A59CCC887}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5E94E157-D904-4DD4-8FF9-3E443BED4110}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Group</t>
   </si>
@@ -197,6 +197,66 @@
 Review: Nice member to work with. Highly focus on problem design and solving. 
 He contributed to the Scatter Plot as well as several linking function between two graphs.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhat Le
+5 
+He is a hard-working student who has many contribution in the project, and finished all tasks assigned. He's always trying to figure out how to make the project better. He's active team member.
+Darien Sokolov
+5 
+He is also hard-working student. He is organized because he created a plan for the project, and recorded the progress of the project. He's active team member. </t>
+  </si>
+  <si>
+    <t>Team member name: Ghazanfar Ali
+Rating: 0
+I finished my section of the project weeks ago, and couldn’t move forward without his section. To the time I am writing this (two days after the project is due) I still have not seen his code. I had to rewrite my code to work with fake data because he oversaw getting the data from the server. He added more work to my plate while not contributing to this project at all.</t>
+  </si>
+  <si>
+    <t>Both Siyuang Jiang and Jie Li work on the part they were assigned efficiently. They were both also very helpful when I need some guidance with the project.
+Rating: 4 for both</t>
+  </si>
+  <si>
+    <t>Teammate name: Siyuan Jiang
+Rating: 4.5
+Review: he is passionate, always has some very good ideas, but his code need to be more organized and concise.
+Teammate name: Roberto Gomez Pomares
+Rating: 4
+Review: he is very kind to work with, has patience but need more practice on JavaScript programming.</t>
+  </si>
+  <si>
+    <t>Teammate name: Lino Virgen
+Rating: 5
+Contributed very well to the team. and was a good leader
+Teammate name: Andrew Kennedy
+Rating: 5
+Contributed very well to the team.  had very good ideas</t>
+  </si>
+  <si>
+    <t>Teammate name: Miranda Carrillo
+Rating: 5
+Miranda Carrilo is very easy to work with and did a very good job with what she is responsible for. She helps to put her word cloud and the map visualization together as well as writing the report. Overall she is a great group member.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to rate my team member Kien a 5. He was responsible for mostly the map functionality and the connecting the word cloud with the map visualization. He helped find an interesting story about the golden time of terrorism in the US from our visualization, which will be presented in class. Overall, would work with him again. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li: 5 
+A good teammate and an excellent programmer.
+Roberto: 5
+A good teammate and work hard
+</t>
+  </si>
+  <si>
+    <t>Justin Rodriguez
+Rating - 4
+Description: Worked on most of the front end logic for connecting the map to our data visualization. This was critical to our project because scrolling through circuit names didn't really portray much information to the reader before.
+Adriana Holley
+Rating - 3
+Description: Worked on the word cloud and the readme for the project. Contribution from Adriana was very critical and we were ultimately not able to present our project when called upon because her part wasn't done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua Johnson [4/5]: Worked on the back end of our project, creating the API and database that we used to create the visualizations, from our dataset. He also worked together with Adriana on creating the wordcloud/woordle of F1 drivers and wins. 
+Adriana Holley [4/5]: Worked on creating the wordcloud of F1 drivers and wins in a given year, as well as wrote the report for our project. </t>
   </si>
 </sst>
 </file>
@@ -553,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E895BF0F-A436-4AA9-BB43-4FAEB3E2D715}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,52 +650,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -649,20 +727,26 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -722,12 +806,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,12 +849,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -890,5 +980,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/P2/P2_PeerReview.xlsx
+++ b/P2/P2_PeerReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88856B4-6F0A-4B30-A9DD-BB1A59CCC887}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459A7A7C-1E5E-4C9C-9985-B120D5F6718A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5E94E157-D904-4DD4-8FF9-3E443BED4110}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Group</t>
   </si>
@@ -255,8 +255,35 @@
 Description: Worked on the word cloud and the readme for the project. Contribution from Adriana was very critical and we were ultimately not able to present our project when called upon because her part wasn't done.</t>
   </si>
   <si>
-    <t xml:space="preserve">Joshua Johnson [4/5]: Worked on the back end of our project, creating the API and database that we used to create the visualizations, from our dataset. He also worked together with Adriana on creating the wordcloud/woordle of F1 drivers and wins. 
-Adriana Holley [4/5]: Worked on creating the wordcloud of F1 drivers and wins in a given year, as well as wrote the report for our project. </t>
+    <t>Mia Ward
+5/5
+Proactive, good worker.
+Pavlo Voronstov
+4/5
+Good worker, waited a little late to get started.</t>
+  </si>
+  <si>
+    <t>Teammate name: Hanxiang Du
+Rating: 5
+Summary: We worked as a great team, she completed the data gathering, filtering &amp;  formatting of the tweet data, and provided me with both CSV and JSON files that we needed. I took the data and created our website and the D3 frontend with her input on stylization, making edits, creating the server for files, and updated the formatting code. 
+After website completion, she created and provided the word clouds for upload, and I attached those within our HTML code.
+It was never a one person effort and that was why I gave a 5 rating because we both did a lot of good work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua Johnson [5/5]: Worked on the back end of our project, creating the API and database that we used to create the visualizations, from our dataset. He also worked together with Adriana on creating the wordcloud/woordle of F1 drivers and wins. 
+Adriana Holley [5/5]: Worked on creating the wordcloud of F1 drivers and wins in a given year, as well as wrote the report for our project. </t>
+  </si>
+  <si>
+    <t>Jason Vermillion:
+Rate: 5
+Jason was basically our team leader and really helped all of us out. He was always willing to assist me when I didn't know what to do on a piece of code and did so in a timely manner.
+Pavlo Vorontsov:
+Rate: 5
+Pavlo had a lot of great ideas and was always willing to go the extra mile to make sure our implementation was the best it could be.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Jason Vermillion. Rating - 5. Jason proved himself as a hardworking and knowledgeable person. Not only he worked on his own part of the project but also helped to fix problems in other parts of the code. Absolutely no issues, great teammate. 
+2. Mia Ward. Rating - 5. Mia fully implemented her project task, everything was done on time. She also came up with the dataset for this project and essentially started our team work. Pleasure to work with. </t>
   </si>
 </sst>
 </file>
@@ -613,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E895BF0F-A436-4AA9-BB43-4FAEB3E2D715}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -868,12 +895,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -914,31 +944,40 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>13</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>13</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14</v>
       </c>
@@ -946,7 +985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14</v>
       </c>
@@ -954,7 +993,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
@@ -962,7 +1001,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
@@ -970,7 +1009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>17</v>
       </c>

--- a/P2/P2_PeerReview.xlsx
+++ b/P2/P2_PeerReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459A7A7C-1E5E-4C9C-9985-B120D5F6718A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3EDF8B-910A-4A2F-99E9-07DDD0B8FAD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5E94E157-D904-4DD4-8FF9-3E443BED4110}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Group</t>
   </si>
@@ -284,6 +284,12 @@
   <si>
     <t xml:space="preserve">1. Jason Vermillion. Rating - 5. Jason proved himself as a hardworking and knowledgeable person. Not only he worked on his own part of the project but also helped to fix problems in other parts of the code. Absolutely no issues, great teammate. 
 2. Mia Ward. Rating - 5. Mia fully implemented her project task, everything was done on time. She also came up with the dataset for this project and essentially started our team work. Pleasure to work with. </t>
+  </si>
+  <si>
+    <t>Hao: 5
+Excellent coding proficiency and communication. A good team player.
+Nhat: 5
+Helpful insight and project commitment. Good communication and professionalism.</t>
   </si>
 </sst>
 </file>
@@ -641,7 +647,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,12 +675,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/P2/P2_PeerReview.xlsx
+++ b/P2/P2_PeerReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3EDF8B-910A-4A2F-99E9-07DDD0B8FAD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC6F711-CCCE-4405-A01C-6C1716492F74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5E94E157-D904-4DD4-8FF9-3E443BED4110}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Group</t>
   </si>
@@ -290,6 +290,14 @@
 Excellent coding proficiency and communication. A good team player.
 Nhat: 5
 Helpful insight and project commitment. Good communication and professionalism.</t>
+  </si>
+  <si>
+    <t>Elizabeth Doyle
+5
+Elizabeth was a wonderful partner for the second project. Although she was also very busy, she put a lot of work and effort into the project. Elizabeth did a great job with the co-occurrence matrix on the project.
+Matthew Hendrick
+5
+Matt did a great job with the initial data retrieval and setup. He spent a lot of time on writing java programs to pre-process the data for what we needed in the project. Matt’s contribution was definitely needed for the project to be successful.</t>
   </si>
 </sst>
 </file>
@@ -646,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E895BF0F-A436-4AA9-BB43-4FAEB3E2D715}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,12 +861,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">

--- a/P2/P2_PeerReview.xlsx
+++ b/P2/P2_PeerReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC6F711-CCCE-4405-A01C-6C1716492F74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A836C215-6600-4E16-876A-7D461CB3F165}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5E94E157-D904-4DD4-8FF9-3E443BED4110}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Group</t>
   </si>
@@ -299,15 +299,33 @@
 5
 Matt did a great job with the initial data retrieval and setup. He spent a lot of time on writing java programs to pre-process the data for what we needed in the project. Matt’s contribution was definitely needed for the project to be successful.</t>
   </si>
+  <si>
+    <t>Brandon: 5
+- He helped acquire all the data and pull together the two graphs as well as help Matthew with the word cloud.
+Matthew: 5
+- He did the data extraction for the word cloud and a lot of the word cloud setup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chase Meyer
+5
+Both of us met up and worked on the project. Chase took control of the word cloud with my help in getting the data for his use. I took control of the arc diagram. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -333,10 +351,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,7 +676,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,12 +901,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1005,29 +1029,34 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">

--- a/P2/P2_PeerReview.xlsx
+++ b/P2/P2_PeerReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A836C215-6600-4E16-876A-7D461CB3F165}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A08953-52DF-4FE6-B1E0-B2D8E90766A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5E94E157-D904-4DD4-8FF9-3E443BED4110}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Group</t>
   </si>
@@ -309,6 +309,11 @@
     <t xml:space="preserve">Chase Meyer
 5
 Both of us met up and worked on the project. Chase took control of the word cloud with my help in getting the data for his use. I took control of the arc diagram. </t>
+  </si>
+  <si>
+    <t>Member name: Noah Gomez
+Score: 5
+Comments: Good to work with, fulfilled his duties and full of ideas</t>
   </si>
 </sst>
 </file>
@@ -675,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E895BF0F-A436-4AA9-BB43-4FAEB3E2D715}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,12 +955,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/P2/P2_PeerReview.xlsx
+++ b/P2/P2_PeerReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A08953-52DF-4FE6-B1E0-B2D8E90766A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B7E4C8-652F-43DC-82A6-9D456D38FCA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5E94E157-D904-4DD4-8FF9-3E443BED4110}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Group</t>
   </si>
@@ -314,6 +314,14 @@
     <t>Member name: Noah Gomez
 Score: 5
 Comments: Good to work with, fulfilled his duties and full of ideas</t>
+  </si>
+  <si>
+    <t>Name: Reid Malone
+Rating: 5 (best)
+Review: Reid showed a lot of leadership and initiative! He helped pull the project together and did great with his coding part.
+Name: Todd Robinson
+Rating: 5 (best)
+Review: Todd is a terrific programmer and reliable team member! He was timely with his work and a good communicator.</t>
   </si>
 </sst>
 </file>
@@ -680,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E895BF0F-A436-4AA9-BB43-4FAEB3E2D715}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,12 +985,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
